--- a/exports/file.xlsx
+++ b/exports/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>Numeros</t>
   </si>
@@ -32,12 +32,12 @@
     <t>Tipos de numeros</t>
   </si>
   <si>
+    <t>Entregas</t>
+  </si>
+  <si>
     <t>Servidores</t>
   </si>
   <si>
-    <t>Entregas</t>
-  </si>
-  <si>
     <t>Fechas de altas</t>
   </si>
   <si>
@@ -53,16 +53,661 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>VOIP0</t>
+  </si>
+  <si>
+    <t>HGM Network</t>
+  </si>
+  <si>
+    <t>Activado</t>
+  </si>
+  <si>
+    <t>Numero externo</t>
+  </si>
+  <si>
+    <t>Entrega3</t>
+  </si>
+  <si>
+    <t>host1.hgmnetwork.es</t>
+  </si>
+  <si>
+    <t>01/01/1970 01:01:00</t>
+  </si>
+  <si>
+    <t>23/06/2021 12:03:21</t>
+  </si>
+  <si>
+    <t>Jaime1</t>
+  </si>
+  <si>
+    <t>obser3</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>Numero portado</t>
+  </si>
+  <si>
     <t>07/06/2021 10:35:30</t>
   </si>
   <si>
-    <t>16/06/2021 19:54:32</t>
+    <t>Jaime3</t>
   </si>
   <si>
     <t>Jaime4</t>
   </si>
   <si>
-    <t>obser3</t>
+    <t>Entrega5</t>
+  </si>
+  <si>
+    <t>Jaime5</t>
+  </si>
+  <si>
+    <t>observ5</t>
+  </si>
+  <si>
+    <t>Jaime6</t>
+  </si>
+  <si>
+    <t>observ6</t>
+  </si>
+  <si>
+    <t>Jaime7</t>
+  </si>
+  <si>
+    <t>observ7</t>
+  </si>
+  <si>
+    <t>Jaime8</t>
+  </si>
+  <si>
+    <t>observ8</t>
+  </si>
+  <si>
+    <t>Jaime9</t>
+  </si>
+  <si>
+    <t>observ9</t>
+  </si>
+  <si>
+    <t>Jaime10</t>
+  </si>
+  <si>
+    <t>observ10</t>
+  </si>
+  <si>
+    <t>Jaime11</t>
+  </si>
+  <si>
+    <t>observ11</t>
+  </si>
+  <si>
+    <t>Jaime12</t>
+  </si>
+  <si>
+    <t>observ12</t>
+  </si>
+  <si>
+    <t>Jaime13</t>
+  </si>
+  <si>
+    <t>observ13</t>
+  </si>
+  <si>
+    <t>Jaime14</t>
+  </si>
+  <si>
+    <t>observ14</t>
+  </si>
+  <si>
+    <t>Jaime15</t>
+  </si>
+  <si>
+    <t>observ15</t>
+  </si>
+  <si>
+    <t>Jaime16</t>
+  </si>
+  <si>
+    <t>observ16</t>
+  </si>
+  <si>
+    <t>Jaime17</t>
+  </si>
+  <si>
+    <t>observ17</t>
+  </si>
+  <si>
+    <t>Jaime18</t>
+  </si>
+  <si>
+    <t>observ18</t>
+  </si>
+  <si>
+    <t>Jaime19</t>
+  </si>
+  <si>
+    <t>observ19</t>
+  </si>
+  <si>
+    <t>Jaime20</t>
+  </si>
+  <si>
+    <t>observ20</t>
+  </si>
+  <si>
+    <t>Jaime21</t>
+  </si>
+  <si>
+    <t>observ21</t>
+  </si>
+  <si>
+    <t>Jaime22</t>
+  </si>
+  <si>
+    <t>observ22</t>
+  </si>
+  <si>
+    <t>Jaime23</t>
+  </si>
+  <si>
+    <t>observ23</t>
+  </si>
+  <si>
+    <t>Jaime24</t>
+  </si>
+  <si>
+    <t>observ24</t>
+  </si>
+  <si>
+    <t>Jaime25</t>
+  </si>
+  <si>
+    <t>observ25</t>
+  </si>
+  <si>
+    <t>Jaime26</t>
+  </si>
+  <si>
+    <t>observ26</t>
+  </si>
+  <si>
+    <t>Alisys</t>
+  </si>
+  <si>
+    <t>Jaime27</t>
+  </si>
+  <si>
+    <t>observ27</t>
+  </si>
+  <si>
+    <t>Jaime28</t>
+  </si>
+  <si>
+    <t>observ28</t>
+  </si>
+  <si>
+    <t>Jaime29</t>
+  </si>
+  <si>
+    <t>observ29</t>
+  </si>
+  <si>
+    <t>Jaime30</t>
+  </si>
+  <si>
+    <t>observ30</t>
+  </si>
+  <si>
+    <t>Jaime31</t>
+  </si>
+  <si>
+    <t>observ31</t>
+  </si>
+  <si>
+    <t>Jaime32</t>
+  </si>
+  <si>
+    <t>observ32</t>
+  </si>
+  <si>
+    <t>Jaime33</t>
+  </si>
+  <si>
+    <t>observ33</t>
+  </si>
+  <si>
+    <t>Jaime34</t>
+  </si>
+  <si>
+    <t>observ34</t>
+  </si>
+  <si>
+    <t>Jaime35</t>
+  </si>
+  <si>
+    <t>observ35</t>
+  </si>
+  <si>
+    <t>Jaime36</t>
+  </si>
+  <si>
+    <t>observ36</t>
+  </si>
+  <si>
+    <t>Jaime37</t>
+  </si>
+  <si>
+    <t>observ37</t>
+  </si>
+  <si>
+    <t>Jaime38</t>
+  </si>
+  <si>
+    <t>observ38</t>
+  </si>
+  <si>
+    <t>Jaime39</t>
+  </si>
+  <si>
+    <t>observ39</t>
+  </si>
+  <si>
+    <t>Jaime40</t>
+  </si>
+  <si>
+    <t>observ40</t>
+  </si>
+  <si>
+    <t>Jaime41</t>
+  </si>
+  <si>
+    <t>observ41</t>
+  </si>
+  <si>
+    <t>Jaime42</t>
+  </si>
+  <si>
+    <t>observ42</t>
+  </si>
+  <si>
+    <t>Jaime43</t>
+  </si>
+  <si>
+    <t>observ43</t>
+  </si>
+  <si>
+    <t>Jaime44</t>
+  </si>
+  <si>
+    <t>observ44</t>
+  </si>
+  <si>
+    <t>Jaime45</t>
+  </si>
+  <si>
+    <t>observ45</t>
+  </si>
+  <si>
+    <t>Jaime46</t>
+  </si>
+  <si>
+    <t>observ46</t>
+  </si>
+  <si>
+    <t>Jaime47</t>
+  </si>
+  <si>
+    <t>observ47</t>
+  </si>
+  <si>
+    <t>Jaime48</t>
+  </si>
+  <si>
+    <t>observ48</t>
+  </si>
+  <si>
+    <t>Jaime49</t>
+  </si>
+  <si>
+    <t>observ49</t>
+  </si>
+  <si>
+    <t>Jaime50</t>
+  </si>
+  <si>
+    <t>observ50</t>
+  </si>
+  <si>
+    <t>Jaime51</t>
+  </si>
+  <si>
+    <t>observ51</t>
+  </si>
+  <si>
+    <t>Jaime52</t>
+  </si>
+  <si>
+    <t>observ52</t>
+  </si>
+  <si>
+    <t>Jaime53</t>
+  </si>
+  <si>
+    <t>observ53</t>
+  </si>
+  <si>
+    <t>Jaime54</t>
+  </si>
+  <si>
+    <t>observ54</t>
+  </si>
+  <si>
+    <t>Jaime55</t>
+  </si>
+  <si>
+    <t>observ55</t>
+  </si>
+  <si>
+    <t>Jaime56</t>
+  </si>
+  <si>
+    <t>observ56</t>
+  </si>
+  <si>
+    <t>Jaime57</t>
+  </si>
+  <si>
+    <t>observ57</t>
+  </si>
+  <si>
+    <t>Jaime58</t>
+  </si>
+  <si>
+    <t>observ58</t>
+  </si>
+  <si>
+    <t>Jaime59</t>
+  </si>
+  <si>
+    <t>observ59</t>
+  </si>
+  <si>
+    <t>Jaime60</t>
+  </si>
+  <si>
+    <t>observ60</t>
+  </si>
+  <si>
+    <t>Jaime61</t>
+  </si>
+  <si>
+    <t>observ61</t>
+  </si>
+  <si>
+    <t>Jaime62</t>
+  </si>
+  <si>
+    <t>observ62</t>
+  </si>
+  <si>
+    <t>Jaime63</t>
+  </si>
+  <si>
+    <t>observ63</t>
+  </si>
+  <si>
+    <t>Jaime64</t>
+  </si>
+  <si>
+    <t>observ64</t>
+  </si>
+  <si>
+    <t>Jaime65</t>
+  </si>
+  <si>
+    <t>observ65</t>
+  </si>
+  <si>
+    <t>Jaime66</t>
+  </si>
+  <si>
+    <t>observ66</t>
+  </si>
+  <si>
+    <t>Jaime67</t>
+  </si>
+  <si>
+    <t>observ67</t>
+  </si>
+  <si>
+    <t>Jaime68</t>
+  </si>
+  <si>
+    <t>observ68</t>
+  </si>
+  <si>
+    <t>Jaime69</t>
+  </si>
+  <si>
+    <t>observ69</t>
+  </si>
+  <si>
+    <t>Jaime70</t>
+  </si>
+  <si>
+    <t>observ70</t>
+  </si>
+  <si>
+    <t>Jaime71</t>
+  </si>
+  <si>
+    <t>observ71</t>
+  </si>
+  <si>
+    <t>Jaime72</t>
+  </si>
+  <si>
+    <t>observ72</t>
+  </si>
+  <si>
+    <t>Jaime73</t>
+  </si>
+  <si>
+    <t>observ73</t>
+  </si>
+  <si>
+    <t>Jaime74</t>
+  </si>
+  <si>
+    <t>observ74</t>
+  </si>
+  <si>
+    <t>Jaime75</t>
+  </si>
+  <si>
+    <t>observ75</t>
+  </si>
+  <si>
+    <t>Jaime76</t>
+  </si>
+  <si>
+    <t>observ76</t>
+  </si>
+  <si>
+    <t>Jaime77</t>
+  </si>
+  <si>
+    <t>observ77</t>
+  </si>
+  <si>
+    <t>Jaime78</t>
+  </si>
+  <si>
+    <t>observ78</t>
+  </si>
+  <si>
+    <t>Jaime79</t>
+  </si>
+  <si>
+    <t>observ79</t>
+  </si>
+  <si>
+    <t>Jaime80</t>
+  </si>
+  <si>
+    <t>observ80</t>
+  </si>
+  <si>
+    <t>Jaime81</t>
+  </si>
+  <si>
+    <t>observ81</t>
+  </si>
+  <si>
+    <t>Jaime82</t>
+  </si>
+  <si>
+    <t>observ82</t>
+  </si>
+  <si>
+    <t>Jaime83</t>
+  </si>
+  <si>
+    <t>observ83</t>
+  </si>
+  <si>
+    <t>Jaime84</t>
+  </si>
+  <si>
+    <t>observ84</t>
+  </si>
+  <si>
+    <t>Jaime85</t>
+  </si>
+  <si>
+    <t>observ85</t>
+  </si>
+  <si>
+    <t>Jaime86</t>
+  </si>
+  <si>
+    <t>observ86</t>
+  </si>
+  <si>
+    <t>Jaime87</t>
+  </si>
+  <si>
+    <t>observ87</t>
+  </si>
+  <si>
+    <t>Jaime88</t>
+  </si>
+  <si>
+    <t>observ88</t>
+  </si>
+  <si>
+    <t>Jaime89</t>
+  </si>
+  <si>
+    <t>observ89</t>
+  </si>
+  <si>
+    <t>Jaime90</t>
+  </si>
+  <si>
+    <t>observ90</t>
+  </si>
+  <si>
+    <t>Jaime91</t>
+  </si>
+  <si>
+    <t>observ91</t>
+  </si>
+  <si>
+    <t>Jaime92</t>
+  </si>
+  <si>
+    <t>observ92</t>
+  </si>
+  <si>
+    <t>Jaime93</t>
+  </si>
+  <si>
+    <t>observ93</t>
+  </si>
+  <si>
+    <t>Jaime94</t>
+  </si>
+  <si>
+    <t>observ94</t>
+  </si>
+  <si>
+    <t>Jaime95</t>
+  </si>
+  <si>
+    <t>observ95</t>
+  </si>
+  <si>
+    <t>Jaime96</t>
+  </si>
+  <si>
+    <t>observ96</t>
+  </si>
+  <si>
+    <t>Jaime97</t>
+  </si>
+  <si>
+    <t>observ97</t>
+  </si>
+  <si>
+    <t>Jaime98</t>
+  </si>
+  <si>
+    <t>observ98</t>
+  </si>
+  <si>
+    <t>Jaime99</t>
+  </si>
+  <si>
+    <t>observ99</t>
+  </si>
+  <si>
+    <t>Jaime100</t>
+  </si>
+  <si>
+    <t>observ100</t>
+  </si>
+  <si>
+    <t>Reservado</t>
+  </si>
+  <si>
+    <t>Numeracion nueva</t>
+  </si>
+  <si>
+    <t>Entrega1</t>
+  </si>
+  <si>
+    <t>09/06/2021 10:14:05</t>
+  </si>
+  <si>
+    <t>juigen</t>
+  </si>
+  <si>
+    <t>ob11</t>
+  </si>
+  <si>
+    <t>09/06/2021 10:24:48</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>obs111</t>
+  </si>
+  <si>
+    <t>00/00/0000 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -413,7 +1058,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -421,13 +1066,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="7" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="22" bestFit="true" customWidth="true" style="0"/>
@@ -477,41 +1122,3873 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
+        <v>100000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>444</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>100000003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>444</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>100000004</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>333</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>100000005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>123460</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>100000006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>123461</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>100000007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>123462</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>100000008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>123463</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>100000009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>123464</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>100000010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>123465</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>100000011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>123466</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>100000012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>123467</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>100000013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>123468</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>100000014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>123469</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>100000015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>123470</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>100000016</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>123471</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>100000017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>123472</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>100000018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>123473</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>100000019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>123474</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>100000020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20">
+        <v>123475</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>100000021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>123476</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>100000022</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <v>123477</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>100000023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23">
+        <v>123478</v>
+      </c>
+      <c r="L23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>100000024</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <v>123479</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>100000025</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25">
+        <v>123480</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>100000026</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>123481</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>100000027</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27">
+        <v>123482</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>100000028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <v>123483</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>100000029</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>123484</v>
+      </c>
+      <c r="L29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>100000030</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <v>123485</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>100000031</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31">
+        <v>123486</v>
+      </c>
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>100000032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32">
+        <v>123487</v>
+      </c>
+      <c r="L32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>100000033</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>123488</v>
+      </c>
+      <c r="L33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>100000034</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34">
+        <v>123489</v>
+      </c>
+      <c r="L34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>100000035</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>123490</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>100000036</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36">
+        <v>123491</v>
+      </c>
+      <c r="L36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>100000037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>123492</v>
+      </c>
+      <c r="L37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>100000038</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38">
+        <v>123493</v>
+      </c>
+      <c r="L38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>100000039</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39">
+        <v>123494</v>
+      </c>
+      <c r="L39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>100000040</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>123495</v>
+      </c>
+      <c r="L40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>100000041</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41">
+        <v>123496</v>
+      </c>
+      <c r="L41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>100000042</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42">
+        <v>123497</v>
+      </c>
+      <c r="L42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>100000043</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43">
+        <v>123498</v>
+      </c>
+      <c r="L43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>100000044</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44">
+        <v>123499</v>
+      </c>
+      <c r="L44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>100000045</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45">
+        <v>123500</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>100000046</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46">
+        <v>123501</v>
+      </c>
+      <c r="L46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>100000047</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47">
+        <v>123502</v>
+      </c>
+      <c r="L47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>100000048</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48">
+        <v>123503</v>
+      </c>
+      <c r="L48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>100000049</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K49">
+        <v>123504</v>
+      </c>
+      <c r="L49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>100000050</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50">
+        <v>123505</v>
+      </c>
+      <c r="L50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>100000051</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51">
+        <v>123506</v>
+      </c>
+      <c r="L51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>100000052</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52">
+        <v>123507</v>
+      </c>
+      <c r="L52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>100000053</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53">
+        <v>123508</v>
+      </c>
+      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>100000054</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54">
+        <v>123509</v>
+      </c>
+      <c r="L54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>100000055</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55">
+        <v>123510</v>
+      </c>
+      <c r="L55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>100000056</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56">
+        <v>123511</v>
+      </c>
+      <c r="L56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>100000057</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57">
+        <v>123512</v>
+      </c>
+      <c r="L57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>100000058</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58">
+        <v>123513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>100000059</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59">
+        <v>123514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>100000060</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60">
+        <v>123515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>100000061</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>141</v>
+      </c>
+      <c r="K61">
+        <v>123516</v>
+      </c>
+      <c r="L61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>100000062</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K62">
+        <v>123517</v>
+      </c>
+      <c r="L62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>100000063</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63">
+        <v>123518</v>
+      </c>
+      <c r="L63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>100000064</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>147</v>
+      </c>
+      <c r="K64">
+        <v>123519</v>
+      </c>
+      <c r="L64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>100000065</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65">
+        <v>123520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>100000066</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66">
+        <v>123521</v>
+      </c>
+      <c r="L66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>100000067</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s">
+        <v>153</v>
+      </c>
+      <c r="K67">
+        <v>123522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>100000068</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" t="s">
+        <v>155</v>
+      </c>
+      <c r="K68">
+        <v>123523</v>
+      </c>
+      <c r="L68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>100000069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69">
+        <v>123524</v>
+      </c>
+      <c r="L69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>100000070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70">
+        <v>123525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>100000071</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s">
+        <v>161</v>
+      </c>
+      <c r="K71">
+        <v>123526</v>
+      </c>
+      <c r="L71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>100000072</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
+        <v>123527</v>
+      </c>
+      <c r="L72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>100000073</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+      <c r="K73">
+        <v>123528</v>
+      </c>
+      <c r="L73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>100000074</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74">
+        <v>123529</v>
+      </c>
+      <c r="L74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>100000075</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s">
+        <v>169</v>
+      </c>
+      <c r="K75">
+        <v>123530</v>
+      </c>
+      <c r="L75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>100000076</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
+        <v>171</v>
+      </c>
+      <c r="K76">
+        <v>123531</v>
+      </c>
+      <c r="L76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>100000077</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
+        <v>173</v>
+      </c>
+      <c r="K77">
+        <v>123532</v>
+      </c>
+      <c r="L77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>100000078</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K78">
+        <v>123533</v>
+      </c>
+      <c r="L78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>100000079</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s">
+        <v>177</v>
+      </c>
+      <c r="K79">
+        <v>123534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>100000080</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s">
+        <v>179</v>
+      </c>
+      <c r="K80">
+        <v>123535</v>
+      </c>
+      <c r="L80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>100000081</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s">
+        <v>181</v>
+      </c>
+      <c r="K81">
+        <v>123536</v>
+      </c>
+      <c r="L81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>100000082</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s">
+        <v>183</v>
+      </c>
+      <c r="K82">
+        <v>123537</v>
+      </c>
+      <c r="L82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>100000083</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
+        <v>185</v>
+      </c>
+      <c r="K83">
+        <v>123538</v>
+      </c>
+      <c r="L83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>100000084</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
+        <v>187</v>
+      </c>
+      <c r="K84">
+        <v>123539</v>
+      </c>
+      <c r="L84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>100000085</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s">
+        <v>189</v>
+      </c>
+      <c r="K85">
+        <v>123540</v>
+      </c>
+      <c r="L85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>100000086</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" t="s">
+        <v>191</v>
+      </c>
+      <c r="K86">
+        <v>123541</v>
+      </c>
+      <c r="L86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>100000087</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
+        <v>193</v>
+      </c>
+      <c r="K87">
+        <v>123542</v>
+      </c>
+      <c r="L87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>100000088</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
+        <v>195</v>
+      </c>
+      <c r="K88">
+        <v>123543</v>
+      </c>
+      <c r="L88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>100000089</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
+        <v>197</v>
+      </c>
+      <c r="K89">
+        <v>123544</v>
+      </c>
+      <c r="L89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>100000090</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s">
+        <v>199</v>
+      </c>
+      <c r="K90">
+        <v>123545</v>
+      </c>
+      <c r="L90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>100000091</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
+        <v>201</v>
+      </c>
+      <c r="K91">
+        <v>123546</v>
+      </c>
+      <c r="L91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>100000092</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s">
+        <v>203</v>
+      </c>
+      <c r="K92">
+        <v>123547</v>
+      </c>
+      <c r="L92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>100000093</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>205</v>
+      </c>
+      <c r="K93">
+        <v>123548</v>
+      </c>
+      <c r="L93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>100000094</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>207</v>
+      </c>
+      <c r="K94">
+        <v>123549</v>
+      </c>
+      <c r="L94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>100000095</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>209</v>
+      </c>
+      <c r="K95">
+        <v>123550</v>
+      </c>
+      <c r="L95" t="s">
         <v>210</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>100000096</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
+        <v>211</v>
+      </c>
+      <c r="K96">
+        <v>123551</v>
+      </c>
+      <c r="L96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>100000097</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
+        <v>213</v>
+      </c>
+      <c r="K97">
+        <v>123552</v>
+      </c>
+      <c r="L97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>100000098</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
+        <v>215</v>
+      </c>
+      <c r="K98">
+        <v>123553</v>
+      </c>
+      <c r="L98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>100000099</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>217</v>
+      </c>
+      <c r="K99">
+        <v>123554</v>
+      </c>
+      <c r="L99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>100000100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>219</v>
+      </c>
+      <c r="K100">
+        <v>123555</v>
+      </c>
+      <c r="L100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>1100000001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" t="s">
+        <v>222</v>
+      </c>
+      <c r="F101" t="s">
+        <v>223</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" t="s">
+        <v>225</v>
+      </c>
+      <c r="K101">
+        <v>34324</v>
+      </c>
+      <c r="L101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>111000000</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" t="s">
+        <v>223</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>227</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102">
+        <v>423</v>
+      </c>
+      <c r="L102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>333</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>230</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
